--- a/InputQues/天津站_站室题库.xlsx
+++ b/InputQues/天津站_站室题库.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\OneDrive\私人文档\Python Project\ETest-SQLite\InputQues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB9666-E932-4D36-BA86-77C18D3C417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9415B693-1FE6-4E6D-AC44-4C2C8D6BB691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -44,6 +44,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天津站1、2号泵机扬程为</t>
     </r>
     <r>
@@ -145,6 +150,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>220</t>
     </r>
     <r>
@@ -207,6 +217,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>压力变送器是一种将</t>
     </r>
     <r>
@@ -266,6 +281,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天津站的离心泵按照泵壳结构分类叫</t>
     </r>
     <r>
@@ -303,6 +323,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>透平式</t>
     </r>
     <r>
@@ -324,6 +349,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天津站管线上球阀球体尺寸</t>
     </r>
     <r>
@@ -361,6 +391,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>12×12</t>
     </r>
     <r>
@@ -388,6 +423,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>传导传热</t>
     </r>
     <r>
@@ -425,6 +465,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>天津站防火重点包括，泵区、</t>
     </r>
     <r>
@@ -446,6 +491,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>零位罐</t>
     </r>
     <r>
@@ -502,6 +552,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>泵组启动前，所有准备工作完成后即将启泵，现场操作员应将操作柱上的转换开关由锁停旋至</t>
     </r>
     <r>
@@ -523,6 +578,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>关闭</t>
     </r>
     <r>
@@ -579,6 +639,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>联轴器</t>
     </r>
     <r>
@@ -635,6 +700,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有效功率</t>
     </r>
     <r>
@@ -691,6 +761,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>38</t>
     </r>
     <r>
@@ -757,21 +832,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -826,49 +891,177 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1160,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J17:J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,9 +1362,9 @@
     <col min="1" max="1" width="52.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1212,7 +1405,7 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1220,7 +1413,7 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1264,12 +1457,12 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1295,13 +1488,13 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1315,18 +1508,18 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1341,19 +1534,19 @@
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -1366,7 +1559,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1386,7 +1579,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>